--- a/biology/Botanique/Muscadet-côtes-de-grandlieu/Muscadet-côtes-de-grandlieu.xlsx
+++ b/biology/Botanique/Muscadet-côtes-de-grandlieu/Muscadet-côtes-de-grandlieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscadet-c%C3%B4tes-de-grandlieu</t>
+          <t>Muscadet-côtes-de-grandlieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscadet-côtes-de-grandlieu est un vin blanc d'appellation d'origine contrôlée produit dans la Loire-Atlantique et sur une petite partie de la Vendée.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscadet-c%C3%B4tes-de-grandlieu</t>
+          <t>Muscadet-côtes-de-grandlieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vignoble, classé AOC depuis le 29 décembre 1994, couvrait en 2005 une superficie de 300 hectares au sud de Nantes autour du Lac de Grand-Lieu dans le département de la Loire-Atlantique.  Il déborde sur le département de Vendée. Le décret du 9 octobre 1995 a remplacé l'ancienne dénomination de Muscadet Côtes de Grand Lieu.
 Les vins du Muscadet sont vinifiés en blanc sec à partir d'un cépage unique, le melon (appelé « muscadet » localement, on le retrouve aussi sous les dénominations de melon de Bourgogne, gamay de Bourgogne ou melon musqué). Les vins doivent présenter un titre alcoométrique naturel de 9 % vol. et le moût doit présenter une richesse en sucre de 144 g/l. Le rendement de base est fixé à 55 hl/ha. La densité des plantations doit être comprise entre 6 500 et 7 500 pieds/ha.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscadet-c%C3%B4tes-de-grandlieu</t>
+          <t>Muscadet-côtes-de-grandlieu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seul ont droit à l'appellation muscadet-côtes-de-grandlieu les vins récoltés sur les territoires de :
 17 communes de la Loire-Atlantique : Bouaye, Bouguenais, Brains, La Chevrolière, Corcoué-sur-Logne, Legé, La Limouzinière, Pont-Saint-Martin, Port-Saint-Père, Saint-Aignan-Grandlieu, Saint-Colomban, Saint-Léger-les-Vignes, Saint-Lumine-de-Coutais, Saint-Mars-de-Coutais, Saint-Philbert-de-Grand-Lieu, Sainte-Pazanne et Touvois.
